--- a/failure_find+excel/data1/test.xlsx
+++ b/failure_find+excel/data1/test.xlsx
@@ -1022,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X136"/>
+  <dimension ref="A1:X138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>비균일 함몰</t>
+          <t>균일 돌출</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1081,80 +1081,388 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>268, 436</t>
+          <t>396, 202</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>244, 460</t>
+          <t>376, 210</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>268, 460</t>
+          <t>365, 229</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>372, 255</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>393, 267</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>377, 274</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>365, 294</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>373, 321</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>392, 332</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>378, 338</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>365, 359</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>371, 383</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>391, 396</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>371, 410</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>365, 424</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>371, 448</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>388, 460</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>396, 460</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="inlineStr">
         <is>
-          <t>421, 307</t>
+          <t>137, 202</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>397, 307</t>
+          <t>120, 207</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>397, 331</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>268, 203</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>244, 227</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>268, 227</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>139, 202</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>163, 226</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>163, 202</t>
+          <t>106, 228</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>112, 254</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>134, 267</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>113, 278</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>106, 293</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>106, 306</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>113, 320</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>133, 332</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>115, 341</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>106, 358</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>109, 379</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>131, 396</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>113, 408</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>106, 423</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>109, 444</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>128, 460</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>137, 460</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>합</t>
+          <t>불</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>정상</t>
+          <t>균일 함몰</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>397, 203</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>397, 460</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>403, 460</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>424, 446</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>428, 422</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>417, 404</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>397, 396</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>422, 384</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>428, 357</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>419, 341</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>397, 332</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>422, 319</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>428, 292</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>420, 277</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>397, 267</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>423, 253</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>428, 227</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>415, 208</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>244, 213</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>237, 227</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>242, 253</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>268, 267</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>244, 278</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>237, 292</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>237, 307</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>249, 325</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>268, 332</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>243, 344</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>237, 371</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>248, 389</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>268, 397</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>243, 409</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>237, 436</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>251, 456</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>268, 460</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>268, 203</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1474,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>구멍</t>
+          <t>균일 함몰</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1176,88 +1484,184 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>217, 410</t>
+          <t>397, 203</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>217, 434</t>
+          <t>397, 460</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>241, 434</t>
+          <t>403, 460</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>241, 410</t>
+          <t>424, 446</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>428, 422</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>417, 404</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>397, 396</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>422, 384</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>428, 357</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>419, 341</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>397, 332</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>422, 319</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>428, 292</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>420, 277</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>397, 267</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>423, 253</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>428, 227</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>415, 208</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>424, 385</t>
+          <t>244, 213</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>424, 408</t>
+          <t>237, 227</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>448, 408</t>
+          <t>242, 253</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>448, 385</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>191, 333</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>191, 357</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>215, 357</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>215, 333</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>450, 255</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>450, 279</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>474, 279</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>474, 255</t>
+          <t>268, 267</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>244, 278</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>237, 292</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>237, 307</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>249, 325</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>268, 332</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>243, 344</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>237, 371</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>248, 389</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>268, 397</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>243, 409</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>237, 436</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>251, 456</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>268, 460</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>268, 203</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1673,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>채움</t>
+          <t>비균일 돌출</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1279,7 +1683,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>269, 202</t>
+          <t>269, 435</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1294,7 +1698,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>396, 202</t>
+          <t>396, 435</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1710,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>비균일 돌출</t>
+          <t>균일 함몰</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1316,22 +1720,68 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>320, 202</t>
+          <t>527, 208</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>320, 460</t>
+          <t>502, 460</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>345, 460</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>345, 202</t>
+          <t>527, 460</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>138, 208</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>138, 460</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>163, 460</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>397, 204</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>397, 460</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>422, 460</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>268, 204</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>243, 460</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>268, 460</t>
         </is>
       </c>
     </row>
@@ -1343,98 +1793,98 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>길이 폭 감소</t>
+          <t>구멍</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-19.2308%</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>502, 202</t>
+          <t>217, 410</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>502, 460</t>
+          <t>217, 434</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>527, 460</t>
+          <t>241, 434</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>527, 202</t>
+          <t>241, 410</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="inlineStr">
         <is>
-          <t>397, 202</t>
+          <t>424, 385</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>397, 460</t>
+          <t>424, 408</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>422, 460</t>
+          <t>448, 408</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>422, 202</t>
+          <t>448, 385</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="inlineStr">
         <is>
-          <t>243, 202</t>
+          <t>191, 333</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>243, 460</t>
+          <t>191, 357</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>268, 460</t>
+          <t>215, 357</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>268, 202</t>
+          <t>215, 333</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>138, 202</t>
+          <t>450, 255</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>138, 460</t>
+          <t>450, 279</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>163, 460</t>
+          <t>474, 279</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>163, 202</t>
+          <t>474, 255</t>
         </is>
       </c>
     </row>
@@ -1549,98 +1999,98 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>구멍</t>
+          <t>길이 폭 증가</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>+19.2308%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>217, 410</t>
+          <t>528, 202</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>217, 434</t>
+          <t>528, 460</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>241, 434</t>
+          <t>553, 460</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>241, 410</t>
+          <t>553, 202</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="inlineStr">
         <is>
-          <t>424, 385</t>
+          <t>371, 202</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>424, 408</t>
+          <t>371, 460</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>448, 408</t>
+          <t>396, 460</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>448, 385</t>
+          <t>396, 202</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="inlineStr">
         <is>
-          <t>191, 333</t>
+          <t>269, 202</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>191, 357</t>
+          <t>269, 460</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>215, 357</t>
+          <t>294, 460</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>215, 333</t>
+          <t>294, 202</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="inlineStr">
         <is>
-          <t>450, 255</t>
+          <t>112, 202</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>450, 279</t>
+          <t>112, 460</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>474, 279</t>
+          <t>137, 460</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>474, 255</t>
+          <t>137, 202</t>
         </is>
       </c>
     </row>
@@ -1652,7 +2102,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>구멍</t>
+          <t>균일 돌출</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1662,88 +2112,68 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>217, 410</t>
+          <t>396, 211</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>217, 434</t>
+          <t>372, 460</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>241, 434</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>241, 410</t>
+          <t>396, 460</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="inlineStr">
         <is>
-          <t>424, 385</t>
+          <t>269, 211</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>424, 408</t>
+          <t>269, 460</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>448, 408</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>448, 385</t>
+          <t>293, 460</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="inlineStr">
         <is>
-          <t>191, 333</t>
+          <t>528, 207</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>191, 357</t>
+          <t>528, 460</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>215, 357</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>215, 333</t>
+          <t>553, 460</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="inlineStr">
         <is>
-          <t>450, 255</t>
+          <t>137, 207</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>450, 279</t>
+          <t>112, 460</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>474, 279</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>474, 255</t>
+          <t>137, 460</t>
         </is>
       </c>
     </row>
@@ -1755,7 +2185,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>균일 함몰</t>
+          <t>비균일 돌출</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1765,184 +2195,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>397, 203</t>
+          <t>320, 202</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>397, 460</t>
+          <t>320, 460</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>403, 460</t>
+          <t>345, 460</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>424, 446</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>428, 422</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>417, 404</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>397, 396</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>422, 384</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>428, 357</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>419, 341</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>397, 332</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>422, 319</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>428, 292</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>420, 277</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>397, 267</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>423, 253</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>428, 227</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>415, 208</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>244, 213</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>237, 227</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>242, 253</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>268, 267</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>244, 278</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>237, 292</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>237, 307</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>249, 325</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>268, 332</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>243, 344</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>237, 371</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>248, 389</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>268, 397</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>243, 409</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>237, 436</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>251, 456</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>268, 460</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>268, 203</t>
+          <t>345, 202</t>
         </is>
       </c>
     </row>
@@ -1954,92 +2222,98 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>구멍</t>
+          <t>길이 폭 증가</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>+19.2308%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>196, 281</t>
+          <t>528, 202</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>180, 286</t>
+          <t>528, 460</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>164, 298</t>
+          <t>553, 460</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>153, 320</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>153, 344</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>161, 361</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>174, 374</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>194, 382</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>211, 382</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>230, 375</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>246, 359</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>253, 341</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>253, 322</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>247, 306</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>234, 291</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>218, 283</t>
+          <t>553, 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>371, 202</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>371, 460</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>396, 460</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>396, 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>269, 202</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>269, 460</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>294, 460</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>294, 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>112, 202</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>112, 460</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>137, 460</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>137, 202</t>
         </is>
       </c>
     </row>
@@ -2051,98 +2325,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>길이 폭 감소</t>
+          <t>비균일 돌출</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-19.2308%</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>502, 202</t>
+          <t>269, 435</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>502, 460</t>
+          <t>269, 460</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>527, 460</t>
+          <t>396, 460</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>527, 202</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>397, 202</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>397, 460</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>422, 460</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>422, 202</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>243, 202</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>243, 460</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>268, 460</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>268, 202</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>138, 202</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>138, 460</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>163, 460</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>163, 202</t>
+          <t>396, 435</t>
         </is>
       </c>
     </row>
@@ -2164,22 +2372,44 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>320, 202</t>
+          <t>112, 332</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>320, 460</t>
+          <t>112, 460</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>345, 460</t>
+          <t>137, 460</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>345, 202</t>
+          <t>137, 332</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>528, 202</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>528, 332</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>553, 332</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>553, 202</t>
         </is>
       </c>
     </row>
@@ -2191,54 +2421,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>길이 높이 증가</t>
+          <t>비균일 돌출</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>+9.6899%</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>397, 176</t>
+          <t>269, 306</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>397, 201</t>
+          <t>269, 332</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>527, 201</t>
+          <t>396, 332</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>527, 176</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>138, 176</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>138, 201</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>268, 201</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>268, 176</t>
+          <t>396, 306</t>
         </is>
       </c>
     </row>
@@ -2250,54 +2458,199 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>길이 높이 증가</t>
+          <t>균일 돌출</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>+9.6899%</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>397, 176</t>
+          <t>396, 202</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>397, 201</t>
+          <t>376, 210</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>527, 201</t>
+          <t>365, 229</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>527, 176</t>
+          <t>372, 255</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>393, 267</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>377, 274</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>365, 294</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>373, 321</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>392, 332</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>378, 338</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>365, 359</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>371, 383</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>391, 396</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>371, 410</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>365, 424</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>371, 448</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>388, 460</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>396, 460</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="inlineStr">
         <is>
-          <t>138, 176</t>
+          <t>137, 202</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>138, 201</t>
+          <t>120, 207</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>268, 201</t>
+          <t>106, 228</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>268, 176</t>
+          <t>112, 254</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>134, 267</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>113, 278</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>106, 293</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>106, 306</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>113, 320</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>133, 332</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>115, 341</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>106, 358</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>109, 379</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>131, 396</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>113, 408</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>106, 423</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>109, 444</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>128, 460</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>137, 460</t>
         </is>
       </c>
     </row>
@@ -2309,113 +2662,44 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>길이 높이 감소</t>
+          <t>비균일 돌출</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-9.6899%</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>397, 202</t>
+          <t>320, 202</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>397, 227</t>
+          <t>320, 460</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>527, 227</t>
+          <t>345, 460</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>527, 202</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>138, 202</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>138, 227</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>268, 227</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>268, 202</t>
+          <t>345, 202</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>불</t>
+          <t>합</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>길이 높이 증가</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>+9.6899%</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>397, 176</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>397, 201</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>527, 201</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>527, 176</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>138, 176</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>138, 201</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>268, 201</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>268, 176</t>
+          <t>정상</t>
         </is>
       </c>
     </row>
@@ -2427,157 +2711,110 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>길이 높이 증가</t>
+          <t>길이 폭 증가</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>+9.6899%</t>
+          <t>+19.2308%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>397, 176</t>
+          <t>528, 202</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>397, 201</t>
+          <t>528, 460</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>527, 201</t>
+          <t>553, 460</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>527, 176</t>
+          <t>553, 202</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="inlineStr">
         <is>
-          <t>138, 176</t>
+          <t>371, 202</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>138, 201</t>
+          <t>371, 460</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>268, 201</t>
+          <t>396, 460</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>268, 176</t>
+          <t>396, 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>269, 202</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>269, 460</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>294, 460</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>294, 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>112, 202</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>112, 460</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>137, 460</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>137, 202</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>불</t>
+          <t>합</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>길이 폭 감소</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>-19.2308%</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>502, 202</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>502, 460</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>527, 460</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>527, 202</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>397, 202</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>397, 460</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>422, 460</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>422, 202</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>243, 202</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>243, 460</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>268, 460</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>268, 202</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>138, 202</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>138, 460</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>163, 460</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>163, 202</t>
+          <t>정상</t>
         </is>
       </c>
     </row>
@@ -2589,199 +2826,98 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>균일 돌출</t>
+          <t>길이 폭 증가</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>+19.2308%</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>396, 202</t>
+          <t>528, 202</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>376, 210</t>
+          <t>528, 460</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>365, 229</t>
+          <t>553, 460</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>372, 255</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>393, 267</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>377, 274</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>365, 294</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>373, 321</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>392, 332</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>378, 338</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>365, 359</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>371, 383</t>
-        </is>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>391, 396</t>
-        </is>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>371, 410</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>365, 424</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>371, 448</t>
-        </is>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>388, 460</t>
-        </is>
-      </c>
-      <c r="V135" t="inlineStr">
-        <is>
-          <t>396, 460</t>
+          <t>553, 202</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="inlineStr">
         <is>
+          <t>371, 202</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>371, 460</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>396, 460</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>396, 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>269, 202</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>269, 460</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>294, 460</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>294, 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>112, 202</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>112, 460</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>137, 460</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
           <t>137, 202</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>120, 207</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>106, 228</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>112, 254</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>134, 267</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>113, 278</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>106, 293</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>106, 306</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>113, 320</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>133, 332</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>115, 341</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>106, 358</t>
-        </is>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>109, 379</t>
-        </is>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>131, 396</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>113, 408</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>106, 423</t>
-        </is>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>109, 444</t>
-        </is>
-      </c>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>128, 460</t>
-        </is>
-      </c>
-      <c r="W136" t="inlineStr">
-        <is>
-          <t>137, 460</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2951,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -2825,7 +2961,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2835,7 +2971,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2845,7 +2981,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2855,7 +2991,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2865,7 +3001,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2875,7 +3011,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2885,7 +3021,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2895,7 +3031,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2905,7 +3041,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2915,7 +3051,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
